--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H2">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I2">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J2">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>104.052256534736</v>
+        <v>104.173824</v>
       </c>
       <c r="N2">
-        <v>104.052256534736</v>
+        <v>208.347648</v>
       </c>
       <c r="O2">
-        <v>0.5940054590688598</v>
+        <v>0.5860002699184933</v>
       </c>
       <c r="P2">
-        <v>0.5940054590688598</v>
+        <v>0.4883229748318005</v>
       </c>
       <c r="Q2">
-        <v>26.93927490061064</v>
+        <v>42.894856842496</v>
       </c>
       <c r="R2">
-        <v>26.93927490061064</v>
+        <v>257.369141054976</v>
       </c>
       <c r="S2">
-        <v>0.3316081966780297</v>
+        <v>0.1999347659774911</v>
       </c>
       <c r="T2">
-        <v>0.3316081966780297</v>
+        <v>0.1768440727181033</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H3">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I3">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J3">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.43912293968893</v>
+        <v>9.167025333333333</v>
       </c>
       <c r="N3">
-        <v>8.43912293968893</v>
+        <v>27.501076</v>
       </c>
       <c r="O3">
-        <v>0.04817661108824686</v>
+        <v>0.05156649831423103</v>
       </c>
       <c r="P3">
-        <v>0.04817661108824686</v>
+        <v>0.06445672592087735</v>
       </c>
       <c r="Q3">
-        <v>2.184900744717965</v>
+        <v>3.774635740979111</v>
       </c>
       <c r="R3">
-        <v>2.184900744717965</v>
+        <v>33.97172166881199</v>
       </c>
       <c r="S3">
-        <v>0.02689497020797637</v>
+        <v>0.01759373894856478</v>
       </c>
       <c r="T3">
-        <v>0.02689497020797637</v>
+        <v>0.023342727074942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H4">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I4">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J4">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.222313644575751</v>
+        <v>0.1302863333333333</v>
       </c>
       <c r="N4">
-        <v>0.222313644575751</v>
+        <v>0.390859</v>
       </c>
       <c r="O4">
-        <v>0.001269126907011439</v>
+        <v>0.0007328887773191866</v>
       </c>
       <c r="P4">
-        <v>0.001269126907011439</v>
+        <v>0.0009160911171878587</v>
       </c>
       <c r="Q4">
-        <v>0.05755731384242967</v>
+        <v>0.05364700461477778</v>
       </c>
       <c r="R4">
-        <v>0.05755731384242967</v>
+        <v>0.482823041533</v>
       </c>
       <c r="S4">
-        <v>0.000708500029022194</v>
+        <v>0.0002500509875212549</v>
       </c>
       <c r="T4">
-        <v>0.000708500029022194</v>
+        <v>0.0003317584723515821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H5">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I5">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J5">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.017789966406</v>
+        <v>0.236773</v>
       </c>
       <c r="N5">
-        <v>60.017789966406</v>
+        <v>0.7103189999999999</v>
       </c>
       <c r="O5">
-        <v>0.3426249085659376</v>
+        <v>0.00133189928699758</v>
       </c>
       <c r="P5">
-        <v>0.3426249085659376</v>
+        <v>0.00166483802667909</v>
       </c>
       <c r="Q5">
-        <v>15.5386898533274</v>
+        <v>0.09749420295033333</v>
       </c>
       <c r="R5">
-        <v>15.5386898533274</v>
+        <v>0.8774478265529999</v>
       </c>
       <c r="S5">
-        <v>0.1912730368583268</v>
+        <v>0.0004544246580099479</v>
       </c>
       <c r="T5">
-        <v>0.1912730368583268</v>
+        <v>0.0006029139570082905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H6">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I6">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J6">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.43905608412271</v>
+        <v>61.58354166666667</v>
       </c>
       <c r="N6">
-        <v>2.43905608412271</v>
+        <v>184.750625</v>
       </c>
       <c r="O6">
-        <v>0.01392389436994425</v>
+        <v>0.3464207288695042</v>
       </c>
       <c r="P6">
-        <v>0.01392389436994425</v>
+        <v>0.4330165263110358</v>
       </c>
       <c r="Q6">
-        <v>0.631475035106554</v>
+        <v>25.35778281159723</v>
       </c>
       <c r="R6">
-        <v>0.631475035106554</v>
+        <v>228.220045304375</v>
       </c>
       <c r="S6">
-        <v>0.007773123011344798</v>
+        <v>0.1181937123781697</v>
       </c>
       <c r="T6">
-        <v>0.007773123011344798</v>
+        <v>0.1568150793918012</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.204865317855414</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H7">
-        <v>0.204865317855414</v>
+        <v>1.235287</v>
       </c>
       <c r="I7">
-        <v>0.4417421732153001</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J7">
-        <v>0.4417421732153001</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>104.052256534736</v>
+        <v>2.4794985</v>
       </c>
       <c r="N7">
-        <v>104.052256534736</v>
+        <v>4.958997</v>
       </c>
       <c r="O7">
-        <v>0.5940054590688598</v>
+        <v>0.0139477148334547</v>
       </c>
       <c r="P7">
-        <v>0.5940054590688598</v>
+        <v>0.01162284379241936</v>
       </c>
       <c r="Q7">
-        <v>21.31669860856177</v>
+        <v>1.0209640878565</v>
       </c>
       <c r="R7">
-        <v>21.31669860856177</v>
+        <v>6.125784527139</v>
       </c>
       <c r="S7">
-        <v>0.2623972623908302</v>
+        <v>0.004758757366332643</v>
       </c>
       <c r="T7">
-        <v>0.2623972623908302</v>
+        <v>0.004209163071890576</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H8">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I8">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J8">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.43912293968893</v>
+        <v>104.173824</v>
       </c>
       <c r="N8">
-        <v>8.43912293968893</v>
+        <v>208.347648</v>
       </c>
       <c r="O8">
-        <v>0.04817661108824686</v>
+        <v>0.5860002699184933</v>
       </c>
       <c r="P8">
-        <v>0.04817661108824686</v>
+        <v>0.4883229748318005</v>
       </c>
       <c r="Q8">
-        <v>1.728883603460289</v>
+        <v>60.99835760025601</v>
       </c>
       <c r="R8">
-        <v>1.728883603460289</v>
+        <v>365.990145601536</v>
       </c>
       <c r="S8">
-        <v>0.02128164088027049</v>
+        <v>0.2843159588246069</v>
       </c>
       <c r="T8">
-        <v>0.02128164088027049</v>
+        <v>0.2514799857417324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H9">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I9">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J9">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.222313644575751</v>
+        <v>9.167025333333333</v>
       </c>
       <c r="N9">
-        <v>0.222313644575751</v>
+        <v>27.501076</v>
       </c>
       <c r="O9">
-        <v>0.001269126907011439</v>
+        <v>0.05156649831423103</v>
       </c>
       <c r="P9">
-        <v>0.001269126907011439</v>
+        <v>0.06445672592087735</v>
       </c>
       <c r="Q9">
-        <v>0.04554435545960676</v>
+        <v>5.367696681781334</v>
       </c>
       <c r="R9">
-        <v>0.04554435545960676</v>
+        <v>48.309270136032</v>
       </c>
       <c r="S9">
-        <v>0.0005606268779892453</v>
+        <v>0.02501906426336167</v>
       </c>
       <c r="T9">
-        <v>0.0005606268779892453</v>
+        <v>0.03319437616287513</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H10">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I10">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J10">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>60.017789966406</v>
+        <v>0.1302863333333333</v>
       </c>
       <c r="N10">
-        <v>60.017789966406</v>
+        <v>0.390859</v>
       </c>
       <c r="O10">
-        <v>0.3426249085659376</v>
+        <v>0.0007328887773191866</v>
       </c>
       <c r="P10">
-        <v>0.3426249085659376</v>
+        <v>0.0009160911171878587</v>
       </c>
       <c r="Q10">
-        <v>12.29556361844724</v>
+        <v>0.07628838076533334</v>
       </c>
       <c r="R10">
-        <v>12.29556361844724</v>
+        <v>0.6865954268880001</v>
       </c>
       <c r="S10">
-        <v>0.1513518717076108</v>
+        <v>0.0003555834120422517</v>
       </c>
       <c r="T10">
-        <v>0.1513518717076108</v>
+        <v>0.0004717750197354174</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,557 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H11">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I11">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J11">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.43905608412271</v>
+        <v>0.236773</v>
       </c>
       <c r="N11">
-        <v>2.43905608412271</v>
+        <v>0.7103189999999999</v>
       </c>
       <c r="O11">
-        <v>0.01392389436994425</v>
+        <v>0.00133189928699758</v>
       </c>
       <c r="P11">
-        <v>0.01392389436994425</v>
+        <v>0.00166483802667909</v>
       </c>
       <c r="Q11">
-        <v>0.4996779999409804</v>
+        <v>0.138641009512</v>
       </c>
       <c r="R11">
-        <v>0.4996779999409804</v>
+        <v>1.247769085608</v>
       </c>
       <c r="S11">
-        <v>0.006150771358599458</v>
+        <v>0.000646211686716796</v>
       </c>
       <c r="T11">
-        <v>0.006150771358599458</v>
+        <v>0.0008573699473299626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.5855440000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.756632</v>
+      </c>
+      <c r="I12">
+        <v>0.4851805936269489</v>
+      </c>
+      <c r="J12">
+        <v>0.5149870038950204</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>61.58354166666667</v>
+      </c>
+      <c r="N12">
+        <v>184.750625</v>
+      </c>
+      <c r="O12">
+        <v>0.3464207288695042</v>
+      </c>
+      <c r="P12">
+        <v>0.4330165263110358</v>
+      </c>
+      <c r="Q12">
+        <v>36.05987332166667</v>
+      </c>
+      <c r="R12">
+        <v>324.5388598950001</v>
+      </c>
+      <c r="S12">
+        <v>0.1680766148775864</v>
+      </c>
+      <c r="T12">
+        <v>0.2229978835219496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.5855440000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.756632</v>
+      </c>
+      <c r="I13">
+        <v>0.4851805936269489</v>
+      </c>
+      <c r="J13">
+        <v>0.5149870038950204</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.4794985</v>
+      </c>
+      <c r="N13">
+        <v>4.958997</v>
+      </c>
+      <c r="O13">
+        <v>0.0139477148334547</v>
+      </c>
+      <c r="P13">
+        <v>0.01162284379241936</v>
+      </c>
+      <c r="Q13">
+        <v>1.451855469684</v>
+      </c>
+      <c r="R13">
+        <v>8.711132818104002</v>
+      </c>
+      <c r="S13">
+        <v>0.006767160562634953</v>
+      </c>
+      <c r="T13">
+        <v>0.005985613501397883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2095515</v>
+      </c>
+      <c r="H14">
+        <v>0.419103</v>
+      </c>
+      <c r="I14">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J14">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>104.173824</v>
+      </c>
+      <c r="N14">
+        <v>208.347648</v>
+      </c>
+      <c r="O14">
+        <v>0.5860002699184933</v>
+      </c>
+      <c r="P14">
+        <v>0.4883229748318005</v>
+      </c>
+      <c r="Q14">
+        <v>21.829781079936</v>
+      </c>
+      <c r="R14">
+        <v>87.31912431974399</v>
+      </c>
+      <c r="S14">
+        <v>0.1017495451163954</v>
+      </c>
+      <c r="T14">
+        <v>0.05999891637196479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2095515</v>
+      </c>
+      <c r="H15">
+        <v>0.419103</v>
+      </c>
+      <c r="I15">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J15">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.167025333333333</v>
+      </c>
+      <c r="N15">
+        <v>27.501076</v>
+      </c>
+      <c r="O15">
+        <v>0.05156649831423103</v>
+      </c>
+      <c r="P15">
+        <v>0.06445672592087735</v>
+      </c>
+      <c r="Q15">
+        <v>1.920963909138</v>
+      </c>
+      <c r="R15">
+        <v>11.525783454828</v>
+      </c>
+      <c r="S15">
+        <v>0.008953695102304579</v>
+      </c>
+      <c r="T15">
+        <v>0.007919622683060228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2095515</v>
+      </c>
+      <c r="H16">
+        <v>0.419103</v>
+      </c>
+      <c r="I16">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J16">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1302863333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.390859</v>
+      </c>
+      <c r="O16">
+        <v>0.0007328887773191866</v>
+      </c>
+      <c r="P16">
+        <v>0.0009160911171878587</v>
+      </c>
+      <c r="Q16">
+        <v>0.0273016965795</v>
+      </c>
+      <c r="R16">
+        <v>0.163810179477</v>
+      </c>
+      <c r="S16">
+        <v>0.00012725437775568</v>
+      </c>
+      <c r="T16">
+        <v>0.0001125576251008593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2095515</v>
+      </c>
+      <c r="H17">
+        <v>0.419103</v>
+      </c>
+      <c r="I17">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J17">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.236773</v>
+      </c>
+      <c r="N17">
+        <v>0.7103189999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.00133189928699758</v>
+      </c>
+      <c r="P17">
+        <v>0.00166483802667909</v>
+      </c>
+      <c r="Q17">
+        <v>0.0496161373095</v>
+      </c>
+      <c r="R17">
+        <v>0.297696823857</v>
+      </c>
+      <c r="S17">
+        <v>0.0002312629422708365</v>
+      </c>
+      <c r="T17">
+        <v>0.0002045541223408371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2095515</v>
+      </c>
+      <c r="H18">
+        <v>0.419103</v>
+      </c>
+      <c r="I18">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J18">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>61.58354166666667</v>
+      </c>
+      <c r="N18">
+        <v>184.750625</v>
+      </c>
+      <c r="O18">
+        <v>0.3464207288695042</v>
+      </c>
+      <c r="P18">
+        <v>0.4330165263110358</v>
+      </c>
+      <c r="Q18">
+        <v>12.9049235315625</v>
+      </c>
+      <c r="R18">
+        <v>77.429541189375</v>
+      </c>
+      <c r="S18">
+        <v>0.06015040161374813</v>
+      </c>
+      <c r="T18">
+        <v>0.05320356339728505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2095515</v>
+      </c>
+      <c r="H19">
+        <v>0.419103</v>
+      </c>
+      <c r="I19">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J19">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.4794985</v>
+      </c>
+      <c r="N19">
+        <v>4.958997</v>
+      </c>
+      <c r="O19">
+        <v>0.0139477148334547</v>
+      </c>
+      <c r="P19">
+        <v>0.01162284379241936</v>
+      </c>
+      <c r="Q19">
+        <v>0.5195826299227501</v>
+      </c>
+      <c r="R19">
+        <v>2.078330519691</v>
+      </c>
+      <c r="S19">
+        <v>0.002421796904487106</v>
+      </c>
+      <c r="T19">
+        <v>0.001428067219130903</v>
       </c>
     </row>
   </sheetData>
